--- a/hackathon.xlsx
+++ b/hackathon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Cours réforme 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\GitHub\hackathon_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{9733F3C6-EF73-4D6F-99DF-3038978F8651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F29E4-D46F-4F8E-94BC-E01804C55C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,12 +374,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -394,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +410,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,23 +730,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -751,7 +763,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,7 +773,7 @@
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -771,17 +783,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -791,11 +803,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -811,11 +823,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -824,38 +836,38 @@
       <c r="D6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -867,95 +879,95 @@
       <c r="E8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -964,78 +976,78 @@
       <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1051,47 +1063,47 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1107,18 +1119,18 @@
       <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1127,149 +1139,149 @@
       <c r="E21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="D46" s="1"/>
     </row>

--- a/hackathon.xlsx
+++ b/hackathon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\GitHub\hackathon_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F29E4-D46F-4F8E-94BC-E01804C55C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534437B-2CAE-4E1E-B8B3-EA1F0D8C70CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,15 +400,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -734,556 +729,558 @@
   <dimension ref="A2:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="31.54296875" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="1"/>
+    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="2"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="4"/>
+      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
